--- a/biology/Médecine/1524_en_santé_et_médecine/1524_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1524_en_santé_et_médecine/1524_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1524_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1524_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1524 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1524_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1524_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Publication</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Paul Jove (1483-1552) fait paraître à Rome un « Traité des poissons romains » (De romanis piscibus libellus) qu'il dédie au cardinal de Bourbon[1].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Paul Jove (1483-1552) fait paraître à Rome un « Traité des poissons romains » (De romanis piscibus libellus) qu'il dédie au cardinal de Bourbon.</t>
         </is>
       </c>
     </row>
@@ -523,7 +537,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1524_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1524_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -541,11 +555,13 @@
           <t>Naissances</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>17 octobre : Adolphe Occon (mort en 1605), helléniste et médecin, né et établi à Augsbourg, inspecteur des apothicaireries et vicaire du doyen du Collège des médecins, fils d'Adolphe Occon (1494-1572) et neveu d'Adolphe Occon (1447-1503), tous deux également médecins[2].
-Andrea Bacci (mort en 1600), titulaire de la chaire de lecture des simples de la faculté de médecine du Studium Urbis[3].
-Thomas Erastus (mort en 1583), médecin et théologien suisse[4],[5].</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>17 octobre : Adolphe Occon (mort en 1605), helléniste et médecin, né et établi à Augsbourg, inspecteur des apothicaireries et vicaire du doyen du Collège des médecins, fils d'Adolphe Occon (1494-1572) et neveu d'Adolphe Occon (1447-1503), tous deux également médecins.
+Andrea Bacci (mort en 1600), titulaire de la chaire de lecture des simples de la faculté de médecine du Studium Urbis.
+Thomas Erastus (mort en 1583), médecin et théologien suisse,.</t>
         </is>
       </c>
     </row>
@@ -555,7 +571,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1524_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1524_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -573,11 +589,13 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Nicolas Léonicène (né en 1428), médecin et humaniste italien, professeur à Ferrare, en Émilie[2].
-Thomas Linacre (né vers 1460[6] ou en 1461[7]), humaniste et médecin anglais, docteur de l'université de Padoue, collaborateur de l'édition princeps du texte grec d'Aristote, professeur à Oxford, médecin ordinaire des rois Henri VII et Henri VIII, fondateur, en 1518, du Collège des médecins de Londres.
-Jean Widman, dit Metchinger (né vers 1440), médecin allemand, reçu docteur à Ferrare, professeur à Ulm, Ingolstadt, Tubingue, médecin des villes de Bâle, Strasbourg, Stuttgart, Pforzheim, et au service de Christophe Ier, margrave de Bade, et d'Eberhard V, comte puis duc de Wurtemberg[8].</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Nicolas Léonicène (né en 1428), médecin et humaniste italien, professeur à Ferrare, en Émilie.
+Thomas Linacre (né vers 1460 ou en 1461), humaniste et médecin anglais, docteur de l'université de Padoue, collaborateur de l'édition princeps du texte grec d'Aristote, professeur à Oxford, médecin ordinaire des rois Henri VII et Henri VIII, fondateur, en 1518, du Collège des médecins de Londres.
+Jean Widman, dit Metchinger (né vers 1440), médecin allemand, reçu docteur à Ferrare, professeur à Ulm, Ingolstadt, Tubingue, médecin des villes de Bâle, Strasbourg, Stuttgart, Pforzheim, et au service de Christophe Ier, margrave de Bade, et d'Eberhard V, comte puis duc de Wurtemberg.</t>
         </is>
       </c>
     </row>
